--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H2">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I2">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J2">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.6256670268557</v>
+        <v>170.93328</v>
       </c>
       <c r="N2">
-        <v>42.6256670268557</v>
+        <v>512.79984</v>
       </c>
       <c r="O2">
-        <v>0.4534043231025093</v>
+        <v>0.7687311215213114</v>
       </c>
       <c r="P2">
-        <v>0.4534043231025093</v>
+        <v>0.7687311215213115</v>
       </c>
       <c r="Q2">
-        <v>3334.181460318085</v>
+        <v>15165.699157</v>
       </c>
       <c r="R2">
-        <v>3334.181460318085</v>
+        <v>136491.292413</v>
       </c>
       <c r="S2">
-        <v>0.3397157705136044</v>
+        <v>0.5900057926446609</v>
       </c>
       <c r="T2">
-        <v>0.3397157705136044</v>
+        <v>0.5900057926446611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H3">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I3">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J3">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.290959532207</v>
+        <v>40.31217066666667</v>
       </c>
       <c r="N3">
-        <v>40.290959532207</v>
+        <v>120.936512</v>
       </c>
       <c r="O3">
-        <v>0.4285703077054807</v>
+        <v>0.1812942463137967</v>
       </c>
       <c r="P3">
-        <v>0.4285703077054807</v>
+        <v>0.1812942463137967</v>
       </c>
       <c r="Q3">
-        <v>3151.560542291887</v>
+        <v>3576.613358711111</v>
       </c>
       <c r="R3">
-        <v>3151.560542291887</v>
+        <v>32189.5202284</v>
       </c>
       <c r="S3">
-        <v>0.3211087430864731</v>
+        <v>0.1391444323037241</v>
       </c>
       <c r="T3">
-        <v>0.3211087430864731</v>
+        <v>0.1391444323037241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H4">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I4">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J4">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.095858225337</v>
+        <v>11.112244</v>
       </c>
       <c r="N4">
-        <v>11.095858225337</v>
+        <v>33.336732</v>
       </c>
       <c r="O4">
-        <v>0.11802536919201</v>
+        <v>0.04997463216489184</v>
       </c>
       <c r="P4">
-        <v>0.11802536919201</v>
+        <v>0.04997463216489184</v>
       </c>
       <c r="Q4">
-        <v>867.918495162269</v>
+        <v>985.9106983916665</v>
       </c>
       <c r="R4">
-        <v>867.918495162269</v>
+        <v>8873.196285524999</v>
       </c>
       <c r="S4">
-        <v>0.08843117983714351</v>
+        <v>0.03835583292663007</v>
       </c>
       <c r="T4">
-        <v>0.08843117983714351</v>
+        <v>0.03835583292663008</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.7865645371817</v>
+        <v>17.91585</v>
       </c>
       <c r="H5">
-        <v>17.7865645371817</v>
+        <v>53.74755</v>
       </c>
       <c r="I5">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J5">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.6256670268557</v>
+        <v>170.93328</v>
       </c>
       <c r="N5">
-        <v>42.6256670268557</v>
+        <v>512.79984</v>
       </c>
       <c r="O5">
-        <v>0.4534043231025093</v>
+        <v>0.7687311215213114</v>
       </c>
       <c r="P5">
-        <v>0.4534043231025093</v>
+        <v>0.7687311215213115</v>
       </c>
       <c r="Q5">
-        <v>758.164177513587</v>
+        <v>3062.415004488</v>
       </c>
       <c r="R5">
-        <v>758.164177513587</v>
+        <v>27561.735040392</v>
       </c>
       <c r="S5">
-        <v>0.07724844337514546</v>
+        <v>0.1191400787675433</v>
       </c>
       <c r="T5">
-        <v>0.07724844337514546</v>
+        <v>0.1191400787675434</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.7865645371817</v>
+        <v>17.91585</v>
       </c>
       <c r="H6">
-        <v>17.7865645371817</v>
+        <v>53.74755</v>
       </c>
       <c r="I6">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J6">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.290959532207</v>
+        <v>40.31217066666667</v>
       </c>
       <c r="N6">
-        <v>40.290959532207</v>
+        <v>120.936512</v>
       </c>
       <c r="O6">
-        <v>0.4285703077054807</v>
+        <v>0.1812942463137967</v>
       </c>
       <c r="P6">
-        <v>0.4285703077054807</v>
+        <v>0.1812942463137967</v>
       </c>
       <c r="Q6">
-        <v>716.637751984576</v>
+        <v>722.2268028384001</v>
       </c>
       <c r="R6">
-        <v>716.637751984576</v>
+        <v>6500.0412255456</v>
       </c>
       <c r="S6">
-        <v>0.07301736542898055</v>
+        <v>0.02809748451862222</v>
       </c>
       <c r="T6">
-        <v>0.07301736542898055</v>
+        <v>0.02809748451862222</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.7865645371817</v>
+        <v>17.91585</v>
       </c>
       <c r="H7">
-        <v>17.7865645371817</v>
+        <v>53.74755</v>
       </c>
       <c r="I7">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J7">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.095858225337</v>
+        <v>11.112244</v>
       </c>
       <c r="N7">
-        <v>11.095858225337</v>
+        <v>33.336732</v>
       </c>
       <c r="O7">
-        <v>0.11802536919201</v>
+        <v>0.04997463216489184</v>
       </c>
       <c r="P7">
-        <v>0.11802536919201</v>
+        <v>0.04997463216489184</v>
       </c>
       <c r="Q7">
-        <v>197.357198420375</v>
+        <v>199.0852966674</v>
       </c>
       <c r="R7">
-        <v>197.357198420375</v>
+        <v>1791.7676700066</v>
       </c>
       <c r="S7">
-        <v>0.020108489452577</v>
+        <v>0.007745206933630249</v>
       </c>
       <c r="T7">
-        <v>0.020108489452577</v>
+        <v>0.007745206933630251</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.390387248644799</v>
+        <v>8.960212333333333</v>
       </c>
       <c r="H8">
-        <v>8.390387248644799</v>
+        <v>26.880637</v>
       </c>
       <c r="I8">
-        <v>0.08037000830607582</v>
+        <v>0.077511171905189</v>
       </c>
       <c r="J8">
-        <v>0.08037000830607582</v>
+        <v>0.07751117190518901</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>42.6256670268557</v>
+        <v>170.93328</v>
       </c>
       <c r="N8">
-        <v>42.6256670268557</v>
+        <v>512.79984</v>
       </c>
       <c r="O8">
-        <v>0.4534043231025093</v>
+        <v>0.7687311215213114</v>
       </c>
       <c r="P8">
-        <v>0.4534043231025093</v>
+        <v>0.7687311215213115</v>
       </c>
       <c r="Q8">
-        <v>357.6458530871092</v>
+        <v>1531.59848363312</v>
       </c>
       <c r="R8">
-        <v>357.6458530871092</v>
+        <v>13784.38635269808</v>
       </c>
       <c r="S8">
-        <v>0.03644010921375936</v>
+        <v>0.0595852501091071</v>
       </c>
       <c r="T8">
-        <v>0.03644010921375936</v>
+        <v>0.05958525010910712</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.390387248644799</v>
+        <v>8.960212333333333</v>
       </c>
       <c r="H9">
-        <v>8.390387248644799</v>
+        <v>26.880637</v>
       </c>
       <c r="I9">
-        <v>0.08037000830607582</v>
+        <v>0.077511171905189</v>
       </c>
       <c r="J9">
-        <v>0.08037000830607582</v>
+        <v>0.07751117190518901</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.290959532207</v>
+        <v>40.31217066666667</v>
       </c>
       <c r="N9">
-        <v>40.290959532207</v>
+        <v>120.936512</v>
       </c>
       <c r="O9">
-        <v>0.4285703077054807</v>
+        <v>0.1812942463137967</v>
       </c>
       <c r="P9">
-        <v>0.4285703077054807</v>
+        <v>0.1812942463137967</v>
       </c>
       <c r="Q9">
-        <v>338.0567530946932</v>
+        <v>361.2056087909049</v>
       </c>
       <c r="R9">
-        <v>338.0567530946932</v>
+        <v>3250.850479118144</v>
       </c>
       <c r="S9">
-        <v>0.03444419919002695</v>
+        <v>0.01405232949145037</v>
       </c>
       <c r="T9">
-        <v>0.03444419919002695</v>
+        <v>0.01405232949145038</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.390387248644799</v>
+        <v>8.960212333333333</v>
       </c>
       <c r="H10">
-        <v>8.390387248644799</v>
+        <v>26.880637</v>
       </c>
       <c r="I10">
-        <v>0.08037000830607582</v>
+        <v>0.077511171905189</v>
       </c>
       <c r="J10">
-        <v>0.08037000830607582</v>
+        <v>0.07751117190518901</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.095858225337</v>
+        <v>11.112244</v>
       </c>
       <c r="N10">
-        <v>11.095858225337</v>
+        <v>33.336732</v>
       </c>
       <c r="O10">
-        <v>0.11802536919201</v>
+        <v>0.04997463216489184</v>
       </c>
       <c r="P10">
-        <v>0.11802536919201</v>
+        <v>0.04997463216489184</v>
       </c>
       <c r="Q10">
-        <v>93.09854736663809</v>
+        <v>99.56806573980931</v>
       </c>
       <c r="R10">
-        <v>93.09854736663809</v>
+        <v>896.1125916582839</v>
       </c>
       <c r="S10">
-        <v>0.009485699902289511</v>
+        <v>0.003873592304631519</v>
       </c>
       <c r="T10">
-        <v>0.009485699902289511</v>
+        <v>0.00387359230463152</v>
       </c>
     </row>
   </sheetData>
